--- a/w_2021.xlsx
+++ b/w_2021.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1826">
   <si>
-    <t>Number</t>
+    <t>Tahun</t>
   </si>
   <si>
     <t>Comments</t>
@@ -5530,7 +5530,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5540,21 +5540,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5562,22 +5555,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5591,8 +5591,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5607,17 +5638,25 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5629,21 +5668,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -5652,39 +5676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5699,19 +5692,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5723,13 +5812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5747,19 +5830,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5771,115 +5872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5893,20 +5886,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5916,6 +5906,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5935,6 +5951,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5949,198 +5983,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -6484,10 +6476,10 @@
   <dimension ref="A1:B2016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="B2016" sqref="B2016"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
@@ -7504,7 +7496,7 @@
       <c r="A127">
         <v>2021</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18144,7 +18136,7 @@
       <c r="A1457">
         <v>2021</v>
       </c>
-      <c r="B1457" s="2" t="s">
+      <c r="B1457" s="1" t="s">
         <v>1315</v>
       </c>
     </row>
@@ -19480,7 +19472,7 @@
       <c r="A1624">
         <v>2021</v>
       </c>
-      <c r="B1624" s="2" t="s">
+      <c r="B1624" s="1" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -21944,7 +21936,7 @@
       <c r="A1932">
         <v>2021</v>
       </c>
-      <c r="B1932" s="2" t="s">
+      <c r="B1932" s="1" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -22088,7 +22080,7 @@
       <c r="A1950">
         <v>2021</v>
       </c>
-      <c r="B1950" s="2" t="s">
+      <c r="B1950" s="1" t="s">
         <v>1761</v>
       </c>
     </row>
@@ -22240,7 +22232,7 @@
       <c r="A1969">
         <v>2021</v>
       </c>
-      <c r="B1969" s="2" t="s">
+      <c r="B1969" s="1" t="s">
         <v>1779</v>
       </c>
     </row>
